--- a/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -488,7 +488,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,8 +792,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -944,7 +944,9 @@
       <c r="D10" s="14">
         <v>12</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="15">
+        <v>25</v>
+      </c>
       <c r="F10" s="31" t="s">
         <v>9</v>
       </c>
@@ -976,9 +978,11 @@
       <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15">
+        <v>3</v>
+      </c>
       <c r="F12" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="18"/>
     </row>
@@ -1004,14 +1008,16 @@
       <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
       <c r="F14" s="17">
         <f t="shared" ref="F14:F23" si="0">SUM(D14:E14)</f>
         <v>3</v>
       </c>
       <c r="G14" s="21">
-        <f>(F14/3)*100</f>
-        <v>100</v>
+        <f>(F14/6)*100</f>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1025,14 +1031,16 @@
       <c r="D15" s="17">
         <v>3</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
       <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" ref="G15:G23" si="1">(F15/3)*100</f>
-        <v>100</v>
+        <f t="shared" ref="G15:G23" si="1">(F15/6)*100</f>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1046,14 +1054,16 @@
       <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1067,14 +1077,16 @@
       <c r="D17" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1088,14 +1100,16 @@
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
       <c r="F18" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1109,14 +1123,16 @@
       <c r="D19" s="17">
         <v>0</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
       <c r="F19" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1130,10 +1146,12 @@
       <c r="D20" s="17">
         <v>3</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17">
+        <v>3</v>
+      </c>
       <c r="F20" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="1"/>
@@ -1149,14 +1167,16 @@
       <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="17">
+        <v>3</v>
+      </c>
       <c r="F21" s="17">
         <f t="shared" ref="F21" si="2">SUM(D21:E21)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1170,10 +1190,12 @@
       <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17">
+        <v>3</v>
+      </c>
       <c r="F22" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="1"/>
@@ -1191,7 +1213,9 @@
       <c r="D23" s="17">
         <v>0</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
       <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY_2024!$A$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MAY_2024!$A$1:$H$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +411,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,7 +491,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\user\Desktop\full final logo emboss.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -790,10 +793,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:G25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -801,76 +804,82 @@
     <col min="1" max="1" width="4.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="7.8984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="4"/>
+    <col min="4" max="4" width="7.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.8984375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="7.8984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+    </row>
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+    </row>
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="7" t="s">
@@ -880,62 +889,67 @@
         <v>34</v>
       </c>
       <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="26"/>
       <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -947,16 +961,19 @@
       <c r="E10" s="15">
         <v>25</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="15">
+        <v>26</v>
+      </c>
+      <c r="G10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="H10" s="32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+    <row r="11" spans="1:16" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
@@ -966,12 +983,15 @@
       <c r="E11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="F11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="15" t="s">
         <v>10</v>
       </c>
@@ -981,23 +1001,27 @@
       <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="14">
-        <v>6</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="F12" s="15">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>9</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
         <v>1</v>
       </c>
@@ -1012,15 +1036,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="17">
-        <f t="shared" ref="F14:F23" si="0">SUM(D14:E14)</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="21">
-        <f>(F14/6)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" ref="G14:G23" si="0">SUM(D14:F14)</f>
+        <v>3</v>
+      </c>
+      <c r="H14" s="21">
+        <f>(G14/9)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -1035,15 +1062,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G15" s="21">
-        <f t="shared" ref="G15:G23" si="1">(F15/6)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="21">
+        <f t="shared" ref="H15:H23" si="1">(G15/9)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17">
         <v>3</v>
       </c>
@@ -1058,15 +1088,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G16" s="21">
+      <c r="H16" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19">
         <v>4</v>
       </c>
@@ -1081,15 +1114,18 @@
         <v>3</v>
       </c>
       <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G17" s="21">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19">
         <v>5</v>
       </c>
@@ -1104,15 +1140,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G18" s="21">
+      <c r="H18" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19">
         <v>6</v>
       </c>
@@ -1127,15 +1166,18 @@
         <v>3</v>
       </c>
       <c r="F19" s="17">
+        <v>3</v>
+      </c>
+      <c r="G19" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="21">
+        <v>6</v>
+      </c>
+      <c r="H19" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19">
         <v>7</v>
       </c>
@@ -1150,15 +1192,18 @@
         <v>3</v>
       </c>
       <c r="F20" s="17">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G20" s="21">
+        <v>9</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
         <v>31</v>
@@ -1171,15 +1216,18 @@
         <v>3</v>
       </c>
       <c r="F21" s="17">
-        <f t="shared" ref="F21" si="2">SUM(D21:E21)</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" ref="G21" si="2">SUM(D21:F21)</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="21">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>8</v>
       </c>
@@ -1194,15 +1242,18 @@
         <v>3</v>
       </c>
       <c r="F22" s="17">
+        <v>3</v>
+      </c>
+      <c r="G22" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G22" s="21">
+        <v>9</v>
+      </c>
+      <c r="H22" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19">
         <v>9</v>
       </c>
@@ -1217,67 +1268,76 @@
         <v>0</v>
       </c>
       <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="21">
+      <c r="H23" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G24" s="23"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="10"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D3:O3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D3:P3"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.39370078740157483"/>

--- a/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
+++ b/WAZIR_MAY_ATTENDANCE_POWER SYSTEM PROTECTION_EED_2024.xlsx
@@ -796,7 +796,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1033,18 +1033,18 @@
         <v>3</v>
       </c>
       <c r="E14" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" ref="G14:G23" si="0">SUM(D14:F14)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="21">
         <f>(G14/9)*100</f>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1059,18 +1059,18 @@
         <v>3</v>
       </c>
       <c r="E15" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="17">
         <v>0</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="21">
         <f t="shared" ref="H15:H23" si="1">(G15/9)*100</f>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1085,18 +1085,18 @@
         <v>3</v>
       </c>
       <c r="E16" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="17">
         <v>3</v>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="G17" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1137,18 +1137,18 @@
         <v>3</v>
       </c>
       <c r="E18" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="17">
         <v>0</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="17">
         <v>3</v>
@@ -1220,11 +1220,11 @@
       </c>
       <c r="G21" s="17">
         <f t="shared" ref="G21" si="2">SUM(D21:F21)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
